--- a/数据整理/stocks/A股/科创板/688271-联影医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688271-联影医疗.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>80</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>17.96</v>
       </c>
     </row>
@@ -498,6 +515,2418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9102</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9361</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8850</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6735</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5428</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4702</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4206</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014589</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商成长先导股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014590</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商成长先导股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
